--- a/Devis_TechSolutions.xlsx
+++ b/Devis_TechSolutions.xlsx
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00 €"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,6 +34,10 @@
     </font>
     <font>
       <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="11"/>
     </font>
     <font>
@@ -43,16 +47,26 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00CC0000"/>
       <sz val="12"/>
     </font>
     <font>
       <b val="1"/>
       <color rgb="00CC0000"/>
-      <sz val="12"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <color rgb="000066CC"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <color rgb="00666666"/>
+      <sz val="8"/>
     </font>
   </fonts>
   <fills count="4">
@@ -121,7 +135,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -136,15 +151,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -510,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,7 +560,7 @@
           <t>TechSolutions</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>CLIENT :</t>
         </is>
@@ -552,505 +574,508 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>123 Avenue de l'Innovation</t>
+          <t>[Votre Adresse]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[Adresse]</t>
+          <t>[Adresse client]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>75001 Paris</t>
+          <t>[Code Postal Ville]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[Ville]</t>
+          <t>[Ville client]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SIRET: 123 456 789 00012</t>
+          <t>SIRET: [Votre SIRET]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RCS Paris B 123 456 789</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+          <t>RCS: [Votre RCS]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>Devis N° : DEV-2024-001</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Date : 09/12/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="25" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Date : 10/12/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="25" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>REF</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>DÉSIGNATION</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>QTÉ</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>PUHT</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>MONTANT</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7">
-        <f>IF(C9="","",C9*D9)</f>
-        <v/>
-      </c>
-    </row>
     <row r="10">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7">
+      <c r="A10" s="5" t="n"/>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="E10" s="8">
         <f>IF(C10="","",C10*D10)</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n"/>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="6" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7">
+      <c r="A11" s="5" t="n"/>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="8">
         <f>IF(C11="","",C11*D11)</f>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="5" t="n"/>
-      <c r="C12" s="6" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7">
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="8" t="n"/>
+      <c r="E12" s="8">
         <f>IF(C12="","",C12*D12)</f>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n"/>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7">
+      <c r="A13" s="5" t="n"/>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="8" t="n"/>
+      <c r="E13" s="8">
         <f>IF(C13="","",C13*D13)</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n"/>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="6" t="n"/>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7">
+      <c r="A14" s="5" t="n"/>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="7" t="n"/>
+      <c r="D14" s="8" t="n"/>
+      <c r="E14" s="8">
         <f>IF(C14="","",C14*D14)</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n"/>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="6" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7">
+      <c r="A15" s="5" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="8" t="n"/>
+      <c r="E15" s="8">
         <f>IF(C15="","",C15*D15)</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n"/>
-      <c r="B16" s="5" t="n"/>
-      <c r="C16" s="6" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7">
+      <c r="A16" s="5" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="D16" s="8" t="n"/>
+      <c r="E16" s="8">
         <f>IF(C16="","",C16*D16)</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n"/>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="6" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7">
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="8" t="n"/>
+      <c r="E17" s="8">
         <f>IF(C17="","",C17*D17)</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n"/>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="6" t="n"/>
-      <c r="D18" s="7" t="n"/>
-      <c r="E18" s="7">
+      <c r="A18" s="5" t="n"/>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="8" t="n"/>
+      <c r="E18" s="8">
         <f>IF(C18="","",C18*D18)</f>
         <v/>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="5" t="n"/>
-      <c r="C19" s="6" t="n"/>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="7">
+      <c r="A19" s="5" t="n"/>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="7" t="n"/>
+      <c r="D19" s="8" t="n"/>
+      <c r="E19" s="8">
         <f>IF(C19="","",C19*D19)</f>
         <v/>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n"/>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="6" t="n"/>
-      <c r="D20" s="7" t="n"/>
-      <c r="E20" s="7">
+      <c r="A20" s="5" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="7" t="n"/>
+      <c r="D20" s="8" t="n"/>
+      <c r="E20" s="8">
         <f>IF(C20="","",C20*D20)</f>
         <v/>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n"/>
-      <c r="B21" s="5" t="n"/>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="7" t="n"/>
-      <c r="E21" s="7">
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="7" t="n"/>
+      <c r="D21" s="8" t="n"/>
+      <c r="E21" s="8">
         <f>IF(C21="","",C21*D21)</f>
         <v/>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n"/>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="6" t="n"/>
-      <c r="D22" s="7" t="n"/>
-      <c r="E22" s="7">
+      <c r="A22" s="5" t="n"/>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="7" t="n"/>
+      <c r="D22" s="8" t="n"/>
+      <c r="E22" s="8">
         <f>IF(C22="","",C22*D22)</f>
         <v/>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n"/>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="7" t="n"/>
-      <c r="E23" s="7">
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="7" t="n"/>
+      <c r="D23" s="8" t="n"/>
+      <c r="E23" s="8">
         <f>IF(C23="","",C23*D23)</f>
         <v/>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n"/>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="7" t="n"/>
-      <c r="E24" s="7">
+      <c r="A24" s="5" t="n"/>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="7" t="n"/>
+      <c r="D24" s="8" t="n"/>
+      <c r="E24" s="8">
         <f>IF(C24="","",C24*D24)</f>
         <v/>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n"/>
-      <c r="B25" s="5" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="7" t="n"/>
-      <c r="E25" s="7">
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="7" t="n"/>
+      <c r="D25" s="8" t="n"/>
+      <c r="E25" s="8">
         <f>IF(C25="","",C25*D25)</f>
         <v/>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n"/>
-      <c r="B26" s="5" t="n"/>
-      <c r="C26" s="6" t="n"/>
-      <c r="D26" s="7" t="n"/>
-      <c r="E26" s="7">
+      <c r="A26" s="5" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="7" t="n"/>
+      <c r="D26" s="8" t="n"/>
+      <c r="E26" s="8">
         <f>IF(C26="","",C26*D26)</f>
         <v/>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n"/>
-      <c r="B27" s="5" t="n"/>
-      <c r="C27" s="6" t="n"/>
-      <c r="D27" s="7" t="n"/>
-      <c r="E27" s="7">
+      <c r="A27" s="5" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="7" t="n"/>
+      <c r="D27" s="8" t="n"/>
+      <c r="E27" s="8">
         <f>IF(C27="","",C27*D27)</f>
         <v/>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n"/>
-      <c r="B28" s="5" t="n"/>
-      <c r="C28" s="6" t="n"/>
-      <c r="D28" s="7" t="n"/>
-      <c r="E28" s="7">
+      <c r="A28" s="5" t="n"/>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="D28" s="8" t="n"/>
+      <c r="E28" s="8">
         <f>IF(C28="","",C28*D28)</f>
         <v/>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n"/>
-      <c r="B29" s="5" t="n"/>
-      <c r="C29" s="6" t="n"/>
-      <c r="D29" s="7" t="n"/>
-      <c r="E29" s="7">
+      <c r="A29" s="5" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="7" t="n"/>
+      <c r="D29" s="8" t="n"/>
+      <c r="E29" s="8">
         <f>IF(C29="","",C29*D29)</f>
         <v/>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="5" t="n"/>
-      <c r="C30" s="6" t="n"/>
-      <c r="D30" s="7" t="n"/>
-      <c r="E30" s="7">
+      <c r="A30" s="5" t="n"/>
+      <c r="B30" s="6" t="n"/>
+      <c r="C30" s="7" t="n"/>
+      <c r="D30" s="8" t="n"/>
+      <c r="E30" s="8">
         <f>IF(C30="","",C30*D30)</f>
         <v/>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="n"/>
-      <c r="B31" s="5" t="n"/>
-      <c r="C31" s="6" t="n"/>
-      <c r="D31" s="7" t="n"/>
-      <c r="E31" s="7">
+      <c r="A31" s="5" t="n"/>
+      <c r="B31" s="6" t="n"/>
+      <c r="C31" s="7" t="n"/>
+      <c r="D31" s="8" t="n"/>
+      <c r="E31" s="8">
         <f>IF(C31="","",C31*D31)</f>
         <v/>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n"/>
-      <c r="B32" s="5" t="n"/>
-      <c r="C32" s="6" t="n"/>
-      <c r="D32" s="7" t="n"/>
-      <c r="E32" s="7">
+      <c r="A32" s="5" t="n"/>
+      <c r="B32" s="6" t="n"/>
+      <c r="C32" s="7" t="n"/>
+      <c r="D32" s="8" t="n"/>
+      <c r="E32" s="8">
         <f>IF(C32="","",C32*D32)</f>
         <v/>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n"/>
-      <c r="B33" s="5" t="n"/>
-      <c r="C33" s="6" t="n"/>
-      <c r="D33" s="7" t="n"/>
-      <c r="E33" s="7">
+      <c r="A33" s="5" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="7" t="n"/>
+      <c r="D33" s="8" t="n"/>
+      <c r="E33" s="8">
         <f>IF(C33="","",C33*D33)</f>
         <v/>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n"/>
-      <c r="B34" s="5" t="n"/>
-      <c r="C34" s="6" t="n"/>
-      <c r="D34" s="7" t="n"/>
-      <c r="E34" s="7">
+      <c r="A34" s="5" t="n"/>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="7" t="n"/>
+      <c r="D34" s="8" t="n"/>
+      <c r="E34" s="8">
         <f>IF(C34="","",C34*D34)</f>
         <v/>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n"/>
-      <c r="B35" s="5" t="n"/>
-      <c r="C35" s="6" t="n"/>
-      <c r="D35" s="7" t="n"/>
-      <c r="E35" s="7">
+      <c r="A35" s="5" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="7" t="n"/>
+      <c r="D35" s="8" t="n"/>
+      <c r="E35" s="8">
         <f>IF(C35="","",C35*D35)</f>
         <v/>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n"/>
-      <c r="B36" s="5" t="n"/>
-      <c r="C36" s="6" t="n"/>
-      <c r="D36" s="7" t="n"/>
-      <c r="E36" s="7">
+      <c r="A36" s="5" t="n"/>
+      <c r="B36" s="6" t="n"/>
+      <c r="C36" s="7" t="n"/>
+      <c r="D36" s="8" t="n"/>
+      <c r="E36" s="8">
         <f>IF(C36="","",C36*D36)</f>
         <v/>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="n"/>
-      <c r="B37" s="5" t="n"/>
-      <c r="C37" s="6" t="n"/>
-      <c r="D37" s="7" t="n"/>
-      <c r="E37" s="7">
+      <c r="A37" s="5" t="n"/>
+      <c r="B37" s="6" t="n"/>
+      <c r="C37" s="7" t="n"/>
+      <c r="D37" s="8" t="n"/>
+      <c r="E37" s="8">
         <f>IF(C37="","",C37*D37)</f>
         <v/>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n"/>
-      <c r="B38" s="5" t="n"/>
-      <c r="C38" s="6" t="n"/>
-      <c r="D38" s="7" t="n"/>
-      <c r="E38" s="7">
+      <c r="A38" s="5" t="n"/>
+      <c r="B38" s="6" t="n"/>
+      <c r="C38" s="7" t="n"/>
+      <c r="D38" s="8" t="n"/>
+      <c r="E38" s="8">
         <f>IF(C38="","",C38*D38)</f>
         <v/>
       </c>
     </row>
-    <row r="40">
-      <c r="D40" s="8" t="inlineStr">
-        <is>
-          <t>Total Net</t>
-        </is>
-      </c>
-      <c r="E40" s="9">
-        <f>SUM(E9:E38)</f>
+    <row r="39">
+      <c r="A39" s="5" t="n"/>
+      <c r="B39" s="6" t="n"/>
+      <c r="C39" s="7" t="n"/>
+      <c r="D39" s="8" t="n"/>
+      <c r="E39" s="8">
+        <f>IF(C39="","",C39*D39)</f>
         <v/>
       </c>
     </row>
     <row r="41">
-      <c r="D41" s="10" t="inlineStr">
-        <is>
-          <t>Remise 10%</t>
-        </is>
-      </c>
-      <c r="E41" s="11">
-        <f>E40*0.1</f>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>Montant Total HT</t>
+        </is>
+      </c>
+      <c r="E41" s="10">
+        <f>SUM(E10:E39)</f>
         <v/>
       </c>
     </row>
     <row r="42">
-      <c r="D42" s="8" t="inlineStr">
-        <is>
-          <t>Total remisé</t>
-        </is>
-      </c>
-      <c r="E42" s="9">
-        <f>E40-E41</f>
+      <c r="D42" s="9" t="inlineStr">
+        <is>
+          <t>TVA 20%</t>
+        </is>
+      </c>
+      <c r="E42" s="10">
+        <f>E41*0.2</f>
         <v/>
       </c>
     </row>
     <row r="43">
-      <c r="D43" s="10" t="inlineStr">
-        <is>
-          <t>Port</t>
-        </is>
-      </c>
-      <c r="E43" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="D44" s="12" t="inlineStr">
-        <is>
-          <t>Montant Total HT</t>
-        </is>
-      </c>
-      <c r="E44" s="13">
-        <f>E42+E43</f>
+      <c r="D43" s="11" t="inlineStr">
+        <is>
+          <t>NET À PAYER TTC</t>
+        </is>
+      </c>
+      <c r="E43" s="12">
+        <f>E41+E42</f>
         <v/>
       </c>
     </row>
     <row r="45">
-      <c r="D45" s="10" t="inlineStr">
-        <is>
-          <t>TVA 20%</t>
-        </is>
-      </c>
-      <c r="E45" s="11">
-        <f>E44*0.2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46">
-      <c r="D46" s="14" t="inlineStr">
-        <is>
-          <t>NET À PAYER TTC</t>
-        </is>
-      </c>
-      <c r="E46" s="15">
-        <f>E44+E45</f>
-        <v/>
+      <c r="A45" s="13" t="inlineStr">
+        <is>
+          <t>MENTIONS LÉGALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="14" t="inlineStr">
+        <is>
+          <t>CONDITIONS DE RÈGLEMENT :</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="16" t="inlineStr">
-        <is>
-          <t>CONDITIONS DE RÈGLEMENT :</t>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>• Acompte de 30% à la commande</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>• Acompte de 30% à la commande</t>
+          <t>• Solde à 30 jours fin de mois</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>• Solde à 30 jours fin de mois</t>
+          <t>• Paiement par virement, chèque ou carte bancaire</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>• Escompte 2% pour paiement anticipé</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr"/>
+          <t>• Escompte 2% pour paiement comptant</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="16" t="inlineStr">
-        <is>
-          <t>GARANTIES :</t>
+      <c r="A53" s="14" t="inlineStr">
+        <is>
+          <t>GARANTIES &amp; MENTIONS :</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>• Matériel : 2 ans constructeur</t>
+          <t>• Matériel garanti 2 ans constructeur</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>• Installation : 1 an garantie TechSolutions</t>
+          <t>• Prestations garanties 1 an</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>• Devis valable 30 jours</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>• Conformément à la loi, ce devis est gratuit et ne vous engage en rien</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="15" t="inlineStr">
+        <is>
+          <t>Document créé par LUMNI - Digital Solutions Provider</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="16" t="inlineStr">
+        <is>
+          <t>Site web et outils développés par Lumni pour TechSolutions</t>
         </is>
       </c>
     </row>
